--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adm-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adm-Calcrl.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Adm</t>
+  </si>
+  <si>
+    <t>Calcrl</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Adm</t>
-  </si>
-  <si>
-    <t>Calcrl</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.600084</v>
+        <v>11.43620533333333</v>
       </c>
       <c r="H2">
-        <v>37.800252</v>
+        <v>34.308616</v>
       </c>
       <c r="I2">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="J2">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.996675</v>
+        <v>78.99738599999999</v>
       </c>
       <c r="N2">
-        <v>200.990025</v>
+        <v>236.992158</v>
       </c>
       <c r="O2">
-        <v>0.6276213057730995</v>
+        <v>0.6882088488047822</v>
       </c>
       <c r="P2">
-        <v>0.6276213057730995</v>
+        <v>0.6882088488047821</v>
       </c>
       <c r="Q2">
-        <v>844.1637327207</v>
+        <v>903.4303270925919</v>
       </c>
       <c r="R2">
-        <v>7597.4735944863</v>
+        <v>8130.872943833328</v>
       </c>
       <c r="S2">
-        <v>0.2579513667807369</v>
+        <v>0.2689186776020013</v>
       </c>
       <c r="T2">
-        <v>0.2579513667807369</v>
+        <v>0.2689186776020013</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.600084</v>
+        <v>11.43620533333333</v>
       </c>
       <c r="H3">
-        <v>37.800252</v>
+        <v>34.308616</v>
       </c>
       <c r="I3">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="J3">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>40.779721</v>
       </c>
       <c r="O3">
-        <v>0.127340756055345</v>
+        <v>0.1184214915836591</v>
       </c>
       <c r="P3">
-        <v>0.127340756055345</v>
+        <v>0.118421491583659</v>
       </c>
       <c r="Q3">
-        <v>171.275970032188</v>
+        <v>155.4550875973484</v>
       </c>
       <c r="R3">
-        <v>1541.483730289692</v>
+        <v>1399.095788376136</v>
       </c>
       <c r="S3">
-        <v>0.0523368498953474</v>
+        <v>0.04627338194160231</v>
       </c>
       <c r="T3">
-        <v>0.0523368498953474</v>
+        <v>0.04627338194160231</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.600084</v>
+        <v>11.43620533333333</v>
       </c>
       <c r="H4">
-        <v>37.800252</v>
+        <v>34.308616</v>
       </c>
       <c r="I4">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="J4">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.031188</v>
+        <v>11.10084966666667</v>
       </c>
       <c r="N4">
-        <v>36.093564</v>
+        <v>33.302549</v>
       </c>
       <c r="O4">
-        <v>0.1127075324642849</v>
+        <v>0.09670830082721493</v>
       </c>
       <c r="P4">
-        <v>0.1127075324642849</v>
+        <v>0.0967083008272149</v>
       </c>
       <c r="Q4">
-        <v>151.593979419792</v>
+        <v>126.9515961624649</v>
       </c>
       <c r="R4">
-        <v>1364.345814778128</v>
+        <v>1142.564365462184</v>
       </c>
       <c r="S4">
-        <v>0.04632261807912111</v>
+        <v>0.03778891889686853</v>
       </c>
       <c r="T4">
-        <v>0.04632261807912111</v>
+        <v>0.03778891889686852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.600084</v>
+        <v>11.43620533333333</v>
       </c>
       <c r="H5">
-        <v>37.800252</v>
+        <v>34.308616</v>
       </c>
       <c r="I5">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="J5">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.569996</v>
+        <v>2.440340333333334</v>
       </c>
       <c r="N5">
-        <v>4.709988000000001</v>
+        <v>7.321021000000001</v>
       </c>
       <c r="O5">
-        <v>0.01470763943999524</v>
+        <v>0.02125973904370978</v>
       </c>
       <c r="P5">
-        <v>0.01470763943999524</v>
+        <v>0.02125973904370977</v>
       </c>
       <c r="Q5">
-        <v>19.782081479664</v>
+        <v>27.90823313521512</v>
       </c>
       <c r="R5">
-        <v>178.038733316976</v>
+        <v>251.174098216936</v>
       </c>
       <c r="S5">
-        <v>0.006044816612769067</v>
+        <v>0.008307276083019092</v>
       </c>
       <c r="T5">
-        <v>0.006044816612769066</v>
+        <v>0.00830727608301909</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.600084</v>
+        <v>11.43620533333333</v>
       </c>
       <c r="H6">
-        <v>37.800252</v>
+        <v>34.308616</v>
       </c>
       <c r="I6">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="J6">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.55587433333333</v>
+        <v>8.655120999999999</v>
       </c>
       <c r="N6">
-        <v>37.66762299999999</v>
+        <v>25.965363</v>
       </c>
       <c r="O6">
-        <v>0.1176227662672754</v>
+        <v>0.07540161974063414</v>
       </c>
       <c r="P6">
-        <v>0.1176227662672753</v>
+        <v>0.07540161974063413</v>
       </c>
       <c r="Q6">
-        <v>158.205071293444</v>
+        <v>98.98174094084533</v>
       </c>
       <c r="R6">
-        <v>1423.845641640996</v>
+        <v>890.835668467608</v>
       </c>
       <c r="S6">
-        <v>0.04834277141978325</v>
+        <v>0.02946330013761862</v>
       </c>
       <c r="T6">
-        <v>0.04834277141978324</v>
+        <v>0.02946330013761862</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.59249933333334</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H7">
-        <v>52.77749800000001</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I7">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="J7">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>66.996675</v>
+        <v>78.99738599999999</v>
       </c>
       <c r="N7">
-        <v>200.990025</v>
+        <v>236.992158</v>
       </c>
       <c r="O7">
-        <v>0.6276213057730995</v>
+        <v>0.6882088488047822</v>
       </c>
       <c r="P7">
-        <v>0.6276213057730995</v>
+        <v>0.6882088488047821</v>
       </c>
       <c r="Q7">
-        <v>1178.63896027305</v>
+        <v>1389.761460540076</v>
       </c>
       <c r="R7">
-        <v>10607.75064245745</v>
+        <v>12507.85314486068</v>
       </c>
       <c r="S7">
-        <v>0.3601570630896221</v>
+        <v>0.4136819441886629</v>
       </c>
       <c r="T7">
-        <v>0.3601570630896221</v>
+        <v>0.4136819441886628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.59249933333334</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H8">
-        <v>52.77749800000001</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I8">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="J8">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>40.779721</v>
       </c>
       <c r="O8">
-        <v>0.127340756055345</v>
+        <v>0.1184214915836591</v>
       </c>
       <c r="P8">
-        <v>0.127340756055345</v>
+        <v>0.118421491583659</v>
       </c>
       <c r="Q8">
-        <v>239.1390715020065</v>
+        <v>239.1390715020064</v>
       </c>
       <c r="R8">
-        <v>2152.251643518058</v>
+        <v>2152.251643518057</v>
       </c>
       <c r="S8">
-        <v>0.07307379830901652</v>
+        <v>0.07118309065210185</v>
       </c>
       <c r="T8">
-        <v>0.07307379830901652</v>
+        <v>0.07118309065210184</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.59249933333334</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H9">
-        <v>52.77749800000001</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I9">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="J9">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.031188</v>
+        <v>11.10084966666667</v>
       </c>
       <c r="N9">
-        <v>36.093564</v>
+        <v>33.302549</v>
       </c>
       <c r="O9">
-        <v>0.1127075324642849</v>
+        <v>0.09670830082721493</v>
       </c>
       <c r="P9">
-        <v>0.1127075324642849</v>
+        <v>0.0967083008272149</v>
       </c>
       <c r="Q9">
-        <v>211.658666869208</v>
+        <v>195.2916903602669</v>
       </c>
       <c r="R9">
-        <v>1904.928001822872</v>
+        <v>1757.625213242402</v>
       </c>
       <c r="S9">
-        <v>0.06467660276512385</v>
+        <v>0.0581313041453389</v>
       </c>
       <c r="T9">
-        <v>0.06467660276512385</v>
+        <v>0.05813130414533889</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.59249933333334</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H10">
-        <v>52.77749800000001</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I10">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="J10">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.569996</v>
+        <v>2.440340333333334</v>
       </c>
       <c r="N10">
-        <v>4.709988000000001</v>
+        <v>7.321021000000001</v>
       </c>
       <c r="O10">
-        <v>0.01470763943999524</v>
+        <v>0.02125973904370978</v>
       </c>
       <c r="P10">
-        <v>0.01470763943999524</v>
+        <v>0.02125973904370977</v>
       </c>
       <c r="Q10">
-        <v>27.62015358333601</v>
+        <v>42.93168568727312</v>
       </c>
       <c r="R10">
-        <v>248.5813822500241</v>
+        <v>386.385171185458</v>
       </c>
       <c r="S10">
-        <v>0.008439898672918536</v>
+        <v>0.0127792169423852</v>
       </c>
       <c r="T10">
-        <v>0.008439898672918535</v>
+        <v>0.0127792169423852</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.59249933333334</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H11">
-        <v>52.77749800000001</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I11">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="J11">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.55587433333333</v>
+        <v>8.655120999999999</v>
       </c>
       <c r="N11">
-        <v>37.66762299999999</v>
+        <v>25.965363</v>
       </c>
       <c r="O11">
-        <v>0.1176227662672754</v>
+        <v>0.07540161974063414</v>
       </c>
       <c r="P11">
-        <v>0.1176227662672753</v>
+        <v>0.07540161974063413</v>
       </c>
       <c r="Q11">
-        <v>220.8892108385838</v>
+        <v>152.2652104224193</v>
       </c>
       <c r="R11">
-        <v>1988.002897547254</v>
+        <v>1370.386893801774</v>
       </c>
       <c r="S11">
-        <v>0.06749718287386201</v>
+        <v>0.04532387036791476</v>
       </c>
       <c r="T11">
-        <v>0.067497182873862</v>
+        <v>0.04532387036791475</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.02822</v>
+        <v>0.217234</v>
       </c>
       <c r="H12">
-        <v>0.08466</v>
+        <v>0.651702</v>
       </c>
       <c r="I12">
-        <v>0.0009204998546891055</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="J12">
-        <v>0.0009204998546891056</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>66.996675</v>
+        <v>78.99738599999999</v>
       </c>
       <c r="N12">
-        <v>200.990025</v>
+        <v>236.992158</v>
       </c>
       <c r="O12">
-        <v>0.6276213057730995</v>
+        <v>0.6882088488047822</v>
       </c>
       <c r="P12">
-        <v>0.6276213057730995</v>
+        <v>0.6882088488047821</v>
       </c>
       <c r="Q12">
-        <v>1.8906461685</v>
+        <v>17.160918150324</v>
       </c>
       <c r="R12">
-        <v>17.0158155165</v>
+        <v>154.448263352916</v>
       </c>
       <c r="S12">
-        <v>0.0005777253207639247</v>
+        <v>0.005108187401980291</v>
       </c>
       <c r="T12">
-        <v>0.0005777253207639248</v>
+        <v>0.00510818740198029</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.02822</v>
+        <v>0.217234</v>
       </c>
       <c r="H13">
-        <v>0.08466</v>
+        <v>0.651702</v>
       </c>
       <c r="I13">
-        <v>0.0009204998546891055</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="J13">
-        <v>0.0009204998546891056</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>40.779721</v>
       </c>
       <c r="O13">
-        <v>0.127340756055345</v>
+        <v>0.1184214915836591</v>
       </c>
       <c r="P13">
-        <v>0.127340756055345</v>
+        <v>0.118421491583659</v>
       </c>
       <c r="Q13">
-        <v>0.3836012422066667</v>
+        <v>2.952913970571333</v>
       </c>
       <c r="R13">
-        <v>3.45241117986</v>
+        <v>26.576225735142</v>
       </c>
       <c r="S13">
-        <v>0.0001172171474449459</v>
+        <v>0.0008789761603355295</v>
       </c>
       <c r="T13">
-        <v>0.0001172171474449459</v>
+        <v>0.0008789761603355293</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02822</v>
+        <v>0.217234</v>
       </c>
       <c r="H14">
-        <v>0.08466</v>
+        <v>0.651702</v>
       </c>
       <c r="I14">
-        <v>0.0009204998546891055</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="J14">
-        <v>0.0009204998546891056</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.031188</v>
+        <v>11.10084966666667</v>
       </c>
       <c r="N14">
-        <v>36.093564</v>
+        <v>33.302549</v>
       </c>
       <c r="O14">
-        <v>0.1127075324642849</v>
+        <v>0.09670830082721493</v>
       </c>
       <c r="P14">
-        <v>0.1127075324642849</v>
+        <v>0.0967083008272149</v>
       </c>
       <c r="Q14">
-        <v>0.33952012536</v>
+        <v>2.411481976488667</v>
       </c>
       <c r="R14">
-        <v>3.05568112824</v>
+        <v>21.703337788398</v>
       </c>
       <c r="S14">
-        <v>0.0001037472672557419</v>
+        <v>0.0007178113516128722</v>
       </c>
       <c r="T14">
-        <v>0.0001037472672557419</v>
+        <v>0.000717811351612872</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02822</v>
+        <v>0.217234</v>
       </c>
       <c r="H15">
-        <v>0.08466</v>
+        <v>0.651702</v>
       </c>
       <c r="I15">
-        <v>0.0009204998546891055</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="J15">
-        <v>0.0009204998546891056</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.569996</v>
+        <v>2.440340333333334</v>
       </c>
       <c r="N15">
-        <v>4.709988000000001</v>
+        <v>7.321021000000001</v>
       </c>
       <c r="O15">
-        <v>0.01470763943999524</v>
+        <v>0.02125973904370978</v>
       </c>
       <c r="P15">
-        <v>0.01470763943999524</v>
+        <v>0.02125973904370977</v>
       </c>
       <c r="Q15">
-        <v>0.04430528712000001</v>
+        <v>0.5301248919713335</v>
       </c>
       <c r="R15">
-        <v>0.3987475840800001</v>
+        <v>4.771124027742</v>
       </c>
       <c r="S15">
-        <v>1.353837996733538E-05</v>
+        <v>0.0001577990915709252</v>
       </c>
       <c r="T15">
-        <v>1.353837996733538E-05</v>
+        <v>0.0001577990915709251</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02822</v>
+        <v>0.217234</v>
       </c>
       <c r="H16">
-        <v>0.08466</v>
+        <v>0.651702</v>
       </c>
       <c r="I16">
-        <v>0.0009204998546891055</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="J16">
-        <v>0.0009204998546891056</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.55587433333333</v>
+        <v>8.655120999999999</v>
       </c>
       <c r="N16">
-        <v>37.66762299999999</v>
+        <v>25.965363</v>
       </c>
       <c r="O16">
-        <v>0.1176227662672754</v>
+        <v>0.07540161974063414</v>
       </c>
       <c r="P16">
-        <v>0.1176227662672753</v>
+        <v>0.07540161974063413</v>
       </c>
       <c r="Q16">
-        <v>0.3543267736866665</v>
+        <v>1.880186555314</v>
       </c>
       <c r="R16">
-        <v>3.188940963179999</v>
+        <v>16.921678997826</v>
       </c>
       <c r="S16">
-        <v>0.0001082717392571576</v>
+        <v>0.0005596638356466006</v>
       </c>
       <c r="T16">
-        <v>0.0001082717392571576</v>
+        <v>0.0005596638356466005</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.436453</v>
+        <v>0.021265</v>
       </c>
       <c r="H17">
-        <v>1.309359</v>
+        <v>0.063795</v>
       </c>
       <c r="I17">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403718</v>
       </c>
       <c r="J17">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403719</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>66.996675</v>
+        <v>78.99738599999999</v>
       </c>
       <c r="N17">
-        <v>200.990025</v>
+        <v>236.992158</v>
       </c>
       <c r="O17">
-        <v>0.6276213057730995</v>
+        <v>0.6882088488047822</v>
       </c>
       <c r="P17">
-        <v>0.6276213057730995</v>
+        <v>0.6882088488047821</v>
       </c>
       <c r="Q17">
-        <v>29.240899793775</v>
+        <v>1.67987941329</v>
       </c>
       <c r="R17">
-        <v>263.168098143975</v>
+        <v>15.11891471961</v>
       </c>
       <c r="S17">
-        <v>0.008935150581976515</v>
+        <v>0.0005000396121376529</v>
       </c>
       <c r="T17">
-        <v>0.008935150581976517</v>
+        <v>0.0005000396121376529</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.436453</v>
+        <v>0.021265</v>
       </c>
       <c r="H18">
-        <v>1.309359</v>
+        <v>0.063795</v>
       </c>
       <c r="I18">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403718</v>
       </c>
       <c r="J18">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403719</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>40.779721</v>
       </c>
       <c r="O18">
-        <v>0.127340756055345</v>
+        <v>0.1184214915836591</v>
       </c>
       <c r="P18">
-        <v>0.127340756055345</v>
+        <v>0.118421491583659</v>
       </c>
       <c r="Q18">
-        <v>5.932810523204334</v>
+        <v>0.2890602556883333</v>
       </c>
       <c r="R18">
-        <v>53.39529470883901</v>
+        <v>2.601542301195</v>
       </c>
       <c r="S18">
-        <v>0.001812890703536108</v>
+        <v>8.604282961937373E-05</v>
       </c>
       <c r="T18">
-        <v>0.001812890703536108</v>
+        <v>8.604282961937373E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.436453</v>
+        <v>0.021265</v>
       </c>
       <c r="H19">
-        <v>1.309359</v>
+        <v>0.063795</v>
       </c>
       <c r="I19">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403718</v>
       </c>
       <c r="J19">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403719</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.031188</v>
+        <v>11.10084966666667</v>
       </c>
       <c r="N19">
-        <v>36.093564</v>
+        <v>33.302549</v>
       </c>
       <c r="O19">
-        <v>0.1127075324642849</v>
+        <v>0.09670830082721493</v>
       </c>
       <c r="P19">
-        <v>0.1127075324642849</v>
+        <v>0.0967083008272149</v>
       </c>
       <c r="Q19">
-        <v>5.251048096164</v>
+        <v>0.2360595681616667</v>
       </c>
       <c r="R19">
-        <v>47.25943286547601</v>
+        <v>2.124536113455</v>
       </c>
       <c r="S19">
-        <v>0.001604564352784207</v>
+        <v>7.026643339462389E-05</v>
       </c>
       <c r="T19">
-        <v>0.001604564352784208</v>
+        <v>7.026643339462389E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.436453</v>
+        <v>0.021265</v>
       </c>
       <c r="H20">
-        <v>1.309359</v>
+        <v>0.063795</v>
       </c>
       <c r="I20">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403718</v>
       </c>
       <c r="J20">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403719</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.569996</v>
+        <v>2.440340333333334</v>
       </c>
       <c r="N20">
-        <v>4.709988000000001</v>
+        <v>7.321021000000001</v>
       </c>
       <c r="O20">
-        <v>0.01470763943999524</v>
+        <v>0.02125973904370978</v>
       </c>
       <c r="P20">
-        <v>0.01470763943999524</v>
+        <v>0.02125973904370977</v>
       </c>
       <c r="Q20">
-        <v>0.6852294641880002</v>
+        <v>0.05189383718833335</v>
       </c>
       <c r="R20">
-        <v>6.167065177692002</v>
+        <v>0.4670445346950001</v>
       </c>
       <c r="S20">
-        <v>0.0002093857743403058</v>
+        <v>1.544692673456146E-05</v>
       </c>
       <c r="T20">
-        <v>0.0002093857743403058</v>
+        <v>1.544692673456146E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.436453</v>
+        <v>0.021265</v>
       </c>
       <c r="H21">
-        <v>1.309359</v>
+        <v>0.063795</v>
       </c>
       <c r="I21">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403718</v>
       </c>
       <c r="J21">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403719</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.55587433333333</v>
+        <v>8.655120999999999</v>
       </c>
       <c r="N21">
-        <v>37.66762299999999</v>
+        <v>25.965363</v>
       </c>
       <c r="O21">
-        <v>0.1176227662672754</v>
+        <v>0.07540161974063414</v>
       </c>
       <c r="P21">
-        <v>0.1176227662672753</v>
+        <v>0.07540161974063413</v>
       </c>
       <c r="Q21">
-        <v>5.480049020406332</v>
+        <v>0.184051148065</v>
       </c>
       <c r="R21">
-        <v>49.320441183657</v>
+        <v>1.656460332585</v>
       </c>
       <c r="S21">
-        <v>0.001674540234372934</v>
+        <v>5.478539945415985E-05</v>
       </c>
       <c r="T21">
-        <v>0.001674540234372934</v>
+        <v>5.478539945415985E-05</v>
       </c>
     </row>
   </sheetData>
